--- a/biology/Histoire de la zoologie et de la botanique/Luis_F._de_Armas/Luis_F._de_Armas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luis_F._de_Armas/Luis_F._de_Armas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis F. de Armas est un arachnologiste cubain, né le 3 janvier 1945 à La Esperanza.
 Il est un spécialiste des arachnides néotropicaux.
@@ -513,9 +525,11 @@
           <t>Espèces nommées en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sphaerodactylus armasi Schwartz &amp; Garrido, 1974[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus armasi Schwartz &amp; Garrido, 1974
 Mexobisium armasi Muchmore, 1980
 Cubazomus armasi (Rowland &amp; Reddell, 1981)
 Carios armasi (de la Cruz &amp; Estrada-Peña, 1995)
@@ -547,7 +561,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alayotityus Armas, 1973
